--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2024.11" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2024.12" sheetId="2" r:id="rId1"/>
+    <sheet name="2024.11" sheetId="1" r:id="rId2"/>
+    <sheet name="模版" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="35">
   <si>
     <t>轮次</t>
   </si>
@@ -58,31 +58,7 @@
     <t>金蓝</t>
   </si>
   <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
     <t>萨满祭司</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>潜行者</t>
-  </si>
-  <si>
-    <t>术士</t>
   </si>
   <si>
     <t>均胜4.86</t>
@@ -134,6 +110,30 @@
   </si>
   <si>
     <t>82.5金</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>潜行者</t>
+  </si>
+  <si>
+    <t>术士</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +763,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1078,1837 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="3"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1125,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -1151,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1177,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -1203,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1229,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1255,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1281,7 +3107,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -1307,7 +3133,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1333,7 +3159,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1359,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -1385,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -1411,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1437,7 +3263,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -1463,7 +3289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1489,7 +3315,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -1515,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1541,7 +3367,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1567,7 +3393,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
@@ -1593,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -1619,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -1645,7 +3471,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -1671,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -1697,7 +3523,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -1723,7 +3549,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -1749,7 +3575,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1775,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1801,7 +3627,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1827,7 +3653,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -1853,7 +3679,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -1879,7 +3705,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
         <v>11</v>
@@ -1905,7 +3731,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1931,7 +3757,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -1957,7 +3783,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
@@ -1983,7 +3809,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2009,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2035,7 +3861,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -2061,7 +3887,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -2087,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2">
         <v>7</v>
@@ -2113,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -2139,7 +3965,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -2165,7 +3991,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -2191,7 +4017,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -2217,7 +4043,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2243,7 +4069,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
@@ -2269,7 +4095,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2">
         <v>7</v>
@@ -2295,7 +4121,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
@@ -2321,7 +4147,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
@@ -2347,7 +4173,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2">
         <v>9</v>
@@ -2373,7 +4199,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
@@ -2399,7 +4225,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2">
         <v>4</v>
@@ -2425,7 +4251,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
@@ -2451,7 +4277,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
@@ -2477,7 +4303,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -2503,7 +4329,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -2529,7 +4355,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2">
         <v>3</v>
@@ -2555,7 +4381,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
         <v>4</v>
@@ -2581,7 +4407,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C58" s="2">
         <v>12</v>
@@ -2607,7 +4433,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C59" s="2">
         <v>4</v>
@@ -2633,7 +4459,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -2659,7 +4485,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2">
         <v>4</v>
@@ -2685,7 +4511,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -2711,7 +4537,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -2737,7 +4563,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
         <v>7</v>
@@ -2763,7 +4589,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2">
         <v>4</v>
@@ -2789,7 +4615,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
@@ -2815,7 +4641,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
@@ -2841,7 +4667,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2">
         <v>8</v>
@@ -2867,7 +4693,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C69" s="2">
         <v>12</v>
@@ -2893,7 +4719,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -2919,7 +4745,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C71" s="2">
         <v>12</v>
@@ -2947,25 +4773,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2976,7 +4802,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3"/>
@@ -2986,43 +4812,43 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="5"/>
+      <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3032,7 +4858,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="5"/>
+      <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3"/>
@@ -3041,40 +4867,23 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="3"/>
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3084,14 +4893,1788 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="8" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:9">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:9">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:9">
+      <c r="A76" s="3"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:8">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="80" customFormat="1" spans="1:9">
+      <c r="A80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:9">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:9">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:8">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -49,6 +49,9 @@
     <t>尘</t>
   </si>
   <si>
+    <t>白</t>
+  </si>
+  <si>
     <t>金白</t>
   </si>
   <si>
@@ -58,7 +61,31 @@
     <t>金蓝</t>
   </si>
   <si>
+    <t>紫</t>
+  </si>
+  <si>
     <t>萨满祭司</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
   </si>
   <si>
     <t>均胜4.86</t>
@@ -112,28 +139,10 @@
     <t>82.5金</t>
   </si>
   <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
     <t>骑士</t>
   </si>
   <si>
-    <t>战士</t>
-  </si>
-  <si>
     <t>潜行者</t>
-  </si>
-  <si>
-    <t>术士</t>
   </si>
 </sst>
 </file>
@@ -1076,15 +1085,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,464 +1118,607 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>80</v>
+      </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
       <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>150</v>
+      </c>
       <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>55</v>
+      </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>80</v>
+      </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>160</v>
+      </c>
       <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>85</v>
+      </c>
       <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>190</v>
+      </c>
       <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>180</v>
+      </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>70</v>
+      </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>80</v>
+      </c>
       <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>45</v>
+      </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>175</v>
+      </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>85</v>
+      </c>
       <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>200</v>
+      </c>
       <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>45</v>
+      </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>180</v>
+      </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
       <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>35</v>
+      </c>
       <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1574,334 +1726,440 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>55</v>
+      </c>
       <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>35</v>
+      </c>
       <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11</v>
+      </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>205</v>
+      </c>
       <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
       <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>110</v>
+      </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>55</v>
+      </c>
       <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>35</v>
+      </c>
       <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>50</v>
+      </c>
       <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
       <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>200</v>
+      </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>30</v>
+      </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>50</v>
+      </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>11</v>
+      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>200</v>
+      </c>
       <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>1</v>
@@ -1910,17 +2168,18 @@
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1933,17 +2192,18 @@
       <c r="F37" s="2">
         <v>0</v>
       </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1956,17 +2216,18 @@
       <c r="F38" s="2">
         <v>0</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1979,17 +2240,18 @@
       <c r="F39" s="2">
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2002,17 +2264,18 @@
       <c r="F40" s="2">
         <v>0</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2025,17 +2288,18 @@
       <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2048,17 +2312,18 @@
       <c r="F42" s="2">
         <v>0</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2071,17 +2336,18 @@
       <c r="F43" s="2">
         <v>0</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2094,17 +2360,18 @@
       <c r="F44" s="2">
         <v>0</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2117,17 +2384,18 @@
       <c r="F45" s="2">
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2140,17 +2408,18 @@
       <c r="F46" s="2">
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2163,17 +2432,18 @@
       <c r="F47" s="2">
         <v>0</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2186,17 +2456,18 @@
       <c r="F48" s="2">
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2209,17 +2480,18 @@
       <c r="F49" s="2">
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2232,17 +2504,18 @@
       <c r="F50" s="2">
         <v>0</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2255,17 +2528,18 @@
       <c r="F51" s="2">
         <v>0</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2278,17 +2552,18 @@
       <c r="F52" s="2">
         <v>0</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2301,17 +2576,18 @@
       <c r="F53" s="2">
         <v>0</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2324,17 +2600,18 @@
       <c r="F54" s="2">
         <v>0</v>
       </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2347,17 +2624,18 @@
       <c r="F55" s="2">
         <v>0</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2370,17 +2648,18 @@
       <c r="F56" s="2">
         <v>0</v>
       </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2">
         <v>0</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2393,17 +2672,18 @@
       <c r="F57" s="2">
         <v>0</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2416,17 +2696,18 @@
       <c r="F58" s="2">
         <v>0</v>
       </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2439,17 +2720,18 @@
       <c r="F59" s="2">
         <v>0</v>
       </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2462,17 +2744,18 @@
       <c r="F60" s="2">
         <v>0</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
+      <c r="G60" s="2"/>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2485,17 +2768,18 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2508,17 +2792,18 @@
       <c r="F62" s="2">
         <v>0</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2531,17 +2816,18 @@
       <c r="F63" s="2">
         <v>0</v>
       </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2554,17 +2840,18 @@
       <c r="F64" s="2">
         <v>0</v>
       </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2577,17 +2864,18 @@
       <c r="F65" s="2">
         <v>0</v>
       </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2600,17 +2888,18 @@
       <c r="F66" s="2">
         <v>0</v>
       </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2623,17 +2912,18 @@
       <c r="F67" s="2">
         <v>0</v>
       </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2646,17 +2936,18 @@
       <c r="F68" s="2">
         <v>0</v>
       </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2669,17 +2960,18 @@
       <c r="F69" s="2">
         <v>0</v>
       </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2692,17 +2984,18 @@
       <c r="F70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2">
         <v>0</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2715,17 +3008,18 @@
       <c r="F71" s="2">
         <v>0</v>
       </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2">
         <v>0</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2734,8 +3028,9 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2744,33 +3039,35 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
@@ -2779,9 +3076,10 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="4"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
@@ -2790,27 +3088,29 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="4"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2819,8 +3119,9 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2829,33 +3130,35 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -2864,9 +3167,10 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="4"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
@@ -2875,25 +3179,27 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="4"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,13 +3243,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2951,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -2977,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -3003,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -3029,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -3055,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -3081,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -3107,7 +3413,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3133,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -3159,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -3185,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -3211,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -3237,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -3263,7 +3569,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -3289,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -3315,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -3341,7 +3647,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3367,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -3393,7 +3699,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
@@ -3419,7 +3725,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -3445,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -3471,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -3497,7 +3803,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -3523,7 +3829,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -3549,7 +3855,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -3575,7 +3881,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -3601,7 +3907,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -3627,7 +3933,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -3653,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -3679,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -3705,7 +4011,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
         <v>11</v>
@@ -3731,7 +4037,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3757,7 +4063,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -3783,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
@@ -3809,7 +4115,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -3835,7 +4141,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -3861,7 +4167,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -3887,7 +4193,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -3913,7 +4219,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
         <v>7</v>
@@ -3939,7 +4245,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -3965,7 +4271,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3991,7 +4297,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -4017,7 +4323,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -4043,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -4069,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
@@ -4095,7 +4401,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2">
         <v>7</v>
@@ -4121,7 +4427,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
@@ -4147,7 +4453,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
@@ -4173,7 +4479,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2">
         <v>9</v>
@@ -4199,7 +4505,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
@@ -4225,7 +4531,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
         <v>4</v>
@@ -4251,7 +4557,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
@@ -4277,7 +4583,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
@@ -4303,7 +4609,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -4329,7 +4635,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -4355,7 +4661,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2">
         <v>3</v>
@@ -4381,7 +4687,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2">
         <v>4</v>
@@ -4407,7 +4713,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C58" s="2">
         <v>12</v>
@@ -4433,7 +4739,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2">
         <v>4</v>
@@ -4459,7 +4765,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -4485,7 +4791,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
         <v>4</v>
@@ -4511,7 +4817,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -4537,7 +4843,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4563,7 +4869,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2">
         <v>7</v>
@@ -4589,7 +4895,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2">
         <v>4</v>
@@ -4615,7 +4921,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
@@ -4641,7 +4947,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
@@ -4667,7 +4973,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2">
         <v>8</v>
@@ -4693,7 +4999,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2">
         <v>12</v>
@@ -4719,7 +5025,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -4745,7 +5051,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
         <v>12</v>
@@ -4773,25 +5079,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4816,39 +5122,39 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4871,16 +5177,16 @@
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4895,8 +5201,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4925,13 +5231,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6548,25 +6854,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:9">
@@ -6593,16 +6899,16 @@
     </row>
     <row r="77" customFormat="1" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6611,27 +6917,27 @@
     </row>
     <row r="80" customFormat="1" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:9">
@@ -6660,16 +6966,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2160,11 +2160,15 @@
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>70</v>
+      </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -2183,12 +2187,18 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>45</v>
+      </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -2207,7 +2217,9 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2220,13 +2220,17 @@
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>55</v>
+      </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
@@ -2243,7 +2247,9 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,11 +1087,11 @@
   <sheetPr/>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2250,13 +2250,17 @@
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>9</v>
+      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>150</v>
+      </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
@@ -2266,14 +2270,16 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
         <v>1</v>
@@ -3235,7 +3241,7 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -5223,7 +5229,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2280,11 +2280,15 @@
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>50</v>
+      </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2303,7 +2307,9 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1085,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2251,16 +2251,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2278,26 +2278,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2308,15 +2308,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>150</v>
+      </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2">
@@ -2326,19 +2330,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>50</v>
+      </c>
       <c r="F42" s="2">
         <v>0</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -2357,7 +2367,9 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <v>1</v>
@@ -3049,187 +3061,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1"/>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="3"/>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="3"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="3" t="s">
+      <c r="H76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="3"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:9">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="4" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="4" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4" t="s">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="4" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2370,11 +2370,15 @@
       <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>55</v>
+      </c>
       <c r="F43" s="2">
         <v>0</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -2393,14 +2397,20 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>270</v>
+      </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2">
@@ -2417,12 +2427,18 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>85</v>
+      </c>
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -2441,14 +2457,20 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8</v>
+      </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>190</v>
+      </c>
       <c r="F46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
@@ -2465,12 +2487,18 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7</v>
+      </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>160</v>
+      </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
@@ -2479,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2489,14 +2517,20 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8</v>
+      </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>185</v>
+      </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2">
@@ -2513,12 +2547,18 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>25</v>
+      </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
@@ -2527,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -2537,14 +2577,20 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>155</v>
+      </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2">

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2607,12 +2607,18 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>120</v>
+      </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
@@ -2631,12 +2637,18 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
       <c r="D52" s="2">
         <v>1</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>50</v>
+      </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
@@ -2655,12 +2667,18 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>9</v>
+      </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>265</v>
+      </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -2679,7 +2697,9 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,11 +1087,11 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2700,11 +2700,15 @@
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>60</v>
+      </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -2723,7 +2727,9 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
         <v>1</v>
@@ -3373,7 +3379,7 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -5361,7 +5367,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,11 +1087,11 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2730,13 +2730,17 @@
       <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>35</v>
+      </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2">
@@ -2753,12 +2757,18 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>370</v>
+      </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
@@ -2777,12 +2787,18 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>195</v>
+      </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
@@ -2791,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2801,14 +2817,20 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>55</v>
+      </c>
       <c r="F58" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
@@ -2825,14 +2847,20 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>55</v>
+      </c>
       <c r="F59" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
@@ -2849,12 +2877,18 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7</v>
+      </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>175</v>
+      </c>
       <c r="F60" s="2">
         <v>0</v>
       </c>
@@ -2873,14 +2907,20 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
       <c r="D61" s="2">
         <v>1</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>80</v>
+      </c>
       <c r="F61" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
@@ -2897,12 +2937,18 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6</v>
+      </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>135</v>
+      </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
@@ -2921,7 +2967,9 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
         <v>1</v>
@@ -3379,7 +3427,7 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -5367,7 +5415,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
   <si>
     <t>轮次</t>
   </si>
@@ -1087,11 +1087,11 @@
   <sheetPr/>
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -2970,11 +2970,15 @@
       <c r="B63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2">
+        <v>6</v>
+      </c>
       <c r="D63" s="2">
         <v>1</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2">
+        <v>135</v>
+      </c>
       <c r="F63" s="2">
         <v>0</v>
       </c>
@@ -2993,12 +2997,18 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>30</v>
+      </c>
       <c r="F64" s="2">
         <v>0</v>
       </c>
@@ -3017,12 +3027,18 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
       <c r="D65" s="2">
         <v>1</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>120</v>
+      </c>
       <c r="F65" s="2">
         <v>0</v>
       </c>
@@ -3427,7 +3443,7 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -5415,7 +5431,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -64,6 +64,9 @@
     <t>紫</t>
   </si>
   <si>
+    <t>橙</t>
+  </si>
+  <si>
     <t>萨满祭司</t>
   </si>
   <si>
@@ -88,6 +91,72 @@
     <t>德鲁伊</t>
   </si>
   <si>
+    <t>均胜5.17</t>
+  </si>
+  <si>
+    <t>70包</t>
+  </si>
+  <si>
+    <t>7245金币</t>
+  </si>
+  <si>
+    <t>1145尘</t>
+  </si>
+  <si>
+    <t>2白</t>
+  </si>
+  <si>
+    <t>4金白</t>
+  </si>
+  <si>
+    <t>8蓝</t>
+  </si>
+  <si>
+    <t>1金蓝</t>
+  </si>
+  <si>
+    <t>1紫</t>
+  </si>
+  <si>
+    <t>1橙</t>
+  </si>
+  <si>
+    <t>总花费</t>
+  </si>
+  <si>
+    <t>10500金</t>
+  </si>
+  <si>
+    <t>总价值</t>
+  </si>
+  <si>
+    <t>16360金</t>
+  </si>
+  <si>
+    <t>金币花费</t>
+  </si>
+  <si>
+    <t>3255金</t>
+  </si>
+  <si>
+    <t>净收益</t>
+  </si>
+  <si>
+    <t>5860金</t>
+  </si>
+  <si>
+    <t>场均</t>
+  </si>
+  <si>
+    <t>83.71金</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>潜行者</t>
+  </si>
+  <si>
     <t>均胜4.86</t>
   </si>
   <si>
@@ -100,49 +169,22 @@
     <t>795尘</t>
   </si>
   <si>
-    <t>4金白</t>
-  </si>
-  <si>
     <t>6蓝</t>
   </si>
   <si>
     <t>2金蓝</t>
   </si>
   <si>
-    <t>总花费</t>
-  </si>
-  <si>
-    <t>10500金</t>
-  </si>
-  <si>
-    <t>总价值</t>
-  </si>
-  <si>
     <t>16275金</t>
-  </si>
-  <si>
-    <t>金币花费</t>
   </si>
   <si>
     <t>2640金</t>
   </si>
   <si>
-    <t>净收益</t>
-  </si>
-  <si>
     <t>5775金</t>
   </si>
   <si>
-    <t>场均</t>
-  </si>
-  <si>
     <t>82.5金</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>潜行者</t>
   </si>
 </sst>
 </file>
@@ -1085,15 +1127,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,13 +1169,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -1163,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1193,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>7</v>
@@ -1223,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1253,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -1283,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
@@ -1313,7 +1358,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -1343,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -1373,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -1403,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -1433,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -1463,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1493,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
@@ -1523,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -1553,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1583,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -1613,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>7</v>
@@ -1643,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1673,7 +1718,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1703,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1735,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
@@ -1765,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -1795,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>11</v>
@@ -1828,7 +1873,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -1858,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -1888,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -1918,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -1948,7 +1993,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1978,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -2008,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -2038,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
         <v>8</v>
@@ -2068,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2098,7 +2143,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -2128,7 +2173,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
         <v>11</v>
@@ -2158,7 +2203,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
@@ -2188,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -2218,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -2248,7 +2293,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -2278,7 +2323,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
         <v>8</v>
@@ -2308,7 +2353,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
         <v>9</v>
@@ -2338,7 +2383,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
@@ -2368,7 +2413,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
@@ -2398,7 +2443,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
         <v>9</v>
@@ -2428,7 +2473,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
@@ -2458,7 +2503,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>8</v>
@@ -2488,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
         <v>7</v>
@@ -2518,7 +2563,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
         <v>8</v>
@@ -2548,7 +2593,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
@@ -2578,7 +2623,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -2608,7 +2653,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
@@ -2638,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -2668,7 +2713,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2">
         <v>9</v>
@@ -2698,7 +2743,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2">
         <v>4</v>
@@ -2728,7 +2773,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <v>3</v>
@@ -2758,7 +2803,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2">
         <v>10</v>
@@ -2788,7 +2833,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" s="2">
         <v>8</v>
@@ -2818,7 +2863,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="2">
         <v>4</v>
@@ -2848,7 +2893,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
         <v>4</v>
@@ -2878,7 +2923,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
         <v>7</v>
@@ -2908,7 +2953,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
         <v>6</v>
@@ -2938,7 +2983,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2">
         <v>6</v>
@@ -2968,7 +3013,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
         <v>6</v>
@@ -2998,7 +3043,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3028,7 +3073,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
@@ -3053,16 +3098,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>340</v>
+      </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
@@ -3075,18 +3126,27 @@
       </c>
       <c r="J66" s="2">
         <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>35</v>
+      </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
@@ -3105,18 +3165,24 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>155</v>
+      </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
@@ -3129,12 +3195,18 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>25</v>
+      </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
@@ -3153,16 +3225,24 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
@@ -3177,12 +3257,18 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2">
+        <v>110</v>
+      </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
@@ -3201,14 +3287,20 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2">
+        <v>8</v>
+      </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>200</v>
+      </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
@@ -3225,7 +3317,9 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2">
         <v>1</v>
@@ -3245,187 +3339,1285 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1"/>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="3"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>25</v>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="3"/>
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="3"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>29</v>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
+        <v>1</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1"/>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1"/>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="3"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="3"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="3"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="3"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="3"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="3"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="3"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="3"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="3"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="3"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="3"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="3"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="3"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="3"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="3"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="3"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="3"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="3"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="3"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="3"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="3"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="3"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="3"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="3"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="3"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="3"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="3"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="3"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="3"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4" t="s">
+      <c r="C139" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="G142" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="H142" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="I142" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" t="s">
+        <v>28</v>
+      </c>
+      <c r="L142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3439,8 +4631,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3483,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -3509,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -3535,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -3561,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -3587,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -3613,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -3639,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -3665,7 +4857,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -3691,7 +4883,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -3717,7 +4909,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -3743,7 +4935,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -3769,7 +4961,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -3795,7 +4987,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -3821,7 +5013,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -3847,7 +5039,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -3873,7 +5065,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -3899,7 +5091,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -3925,7 +5117,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
@@ -3951,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>8</v>
@@ -3977,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -4003,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -4029,7 +5221,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -4055,7 +5247,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -4081,7 +5273,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -4107,7 +5299,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -4133,7 +5325,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -4159,7 +5351,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -4185,7 +5377,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -4211,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -4237,7 +5429,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
         <v>11</v>
@@ -4263,7 +5455,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -4289,7 +5481,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -4315,7 +5507,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
@@ -4341,7 +5533,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -4367,7 +5559,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -4393,7 +5585,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -4419,7 +5611,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -4445,7 +5637,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2">
         <v>7</v>
@@ -4471,7 +5663,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -4497,7 +5689,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -4523,7 +5715,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -4549,7 +5741,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -4575,7 +5767,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -4601,7 +5793,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
@@ -4627,7 +5819,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>7</v>
@@ -4653,7 +5845,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
@@ -4679,7 +5871,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
@@ -4705,7 +5897,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
         <v>9</v>
@@ -4731,7 +5923,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
@@ -4757,7 +5949,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" s="2">
         <v>4</v>
@@ -4783,7 +5975,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
@@ -4809,7 +6001,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2">
         <v>3</v>
@@ -4835,7 +6027,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -4861,7 +6053,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -4887,7 +6079,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2">
         <v>3</v>
@@ -4913,7 +6105,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2">
         <v>4</v>
@@ -4939,7 +6131,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2">
         <v>12</v>
@@ -4965,7 +6157,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2">
         <v>4</v>
@@ -4991,7 +6183,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -5017,7 +6209,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2">
         <v>4</v>
@@ -5043,7 +6235,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -5069,7 +6261,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -5095,7 +6287,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" s="2">
         <v>7</v>
@@ -5121,7 +6313,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2">
         <v>4</v>
@@ -5147,7 +6339,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
@@ -5173,7 +6365,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
@@ -5199,7 +6391,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2">
         <v>8</v>
@@ -5225,7 +6417,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2">
         <v>12</v>
@@ -5251,7 +6443,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -5277,7 +6469,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="2">
         <v>12</v>
@@ -5305,25 +6497,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5348,39 +6540,39 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5403,16 +6595,16 @@
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5427,8 +6619,8 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7080,25 +8272,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:9">
@@ -7125,16 +8317,16 @@
     </row>
     <row r="77" customFormat="1" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7143,27 +8335,27 @@
     </row>
     <row r="80" customFormat="1" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:9">
@@ -7192,16 +8384,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3320,11 +3320,15 @@
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
       <c r="D73" s="2">
         <v>1</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>30</v>
+      </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
@@ -3343,12 +3347,18 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>35</v>
+      </c>
       <c r="F74" s="2">
         <v>0</v>
       </c>
@@ -3367,12 +3377,18 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2">
+        <v>95</v>
+      </c>
       <c r="F75" s="2">
         <v>0</v>
       </c>
@@ -3391,14 +3407,20 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
       <c r="D76" s="2">
         <v>1</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
       <c r="F76" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
@@ -3415,12 +3437,18 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>55</v>
+      </c>
       <c r="F77" s="2">
         <v>0</v>
       </c>
@@ -3439,12 +3467,18 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
       <c r="D78" s="2">
         <v>1</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2">
+        <v>55</v>
+      </c>
       <c r="F78" s="2">
         <v>0</v>
       </c>
@@ -3463,12 +3497,18 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
       <c r="D79" s="2">
         <v>1</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2">
+        <v>60</v>
+      </c>
       <c r="F79" s="2">
         <v>0</v>
       </c>
@@ -3477,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2">
         <v>0</v>
@@ -3487,12 +3527,18 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
       <c r="D80" s="2">
         <v>1</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>205</v>
+      </c>
       <c r="F80" s="2">
         <v>0</v>
       </c>
@@ -3511,7 +3557,9 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,11 +1129,11 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -3560,15 +3560,21 @@
       <c r="B81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <v>8</v>
+      </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>170</v>
+      </c>
       <c r="F81" s="2">
         <v>0</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
       <c r="H81" s="2">
         <v>0</v>
       </c>
@@ -3583,18 +3589,24 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2">
+        <v>9</v>
+      </c>
       <c r="D82" s="2">
         <v>1</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>160</v>
+      </c>
       <c r="F82" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
@@ -3607,14 +3619,20 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4</v>
+      </c>
       <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>50</v>
+      </c>
       <c r="F83" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2">
@@ -3631,14 +3649,20 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2">
+        <v>7</v>
+      </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>155</v>
+      </c>
       <c r="F84" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
@@ -3655,12 +3679,18 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7</v>
+      </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>185</v>
+      </c>
       <c r="F85" s="2">
         <v>0</v>
       </c>
@@ -3679,14 +3709,20 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2">
+        <v>35</v>
+      </c>
       <c r="F86" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
@@ -3703,12 +3739,18 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2">
+        <v>7</v>
+      </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>160</v>
+      </c>
       <c r="F87" s="2">
         <v>0</v>
       </c>
@@ -3717,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -3727,14 +3769,20 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="2">
+        <v>8</v>
+      </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>210</v>
+      </c>
       <c r="F88" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2">
@@ -3751,14 +3799,20 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2">
+        <v>8</v>
+      </c>
       <c r="D89" s="2">
         <v>1</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>195</v>
+      </c>
       <c r="F89" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2">
@@ -3775,7 +3829,9 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2">
         <v>1</v>
@@ -4683,7 +4739,7 @@
       <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -6671,7 +6727,7 @@
       <selection activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3832,13 +3832,17 @@
       <c r="B90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2">
+        <v>5</v>
+      </c>
       <c r="D90" s="2">
         <v>1</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>60</v>
+      </c>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2">
@@ -3855,7 +3859,9 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="2024.12" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,11 +1129,11 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -3862,11 +3862,15 @@
       <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2">
+        <v>6</v>
+      </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>135</v>
+      </c>
       <c r="F91" s="2">
         <v>0</v>
       </c>
@@ -3885,14 +3889,20 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6</v>
+      </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>75</v>
+      </c>
       <c r="F92" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2">
@@ -4745,7 +4755,7 @@
       <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>
@@ -6733,7 +6743,7 @@
       <selection activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="8" width="9" style="2"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3919,12 +3919,18 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6</v>
+      </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>85</v>
+      </c>
       <c r="F93" s="2">
         <v>0</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -3943,14 +3949,20 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>8</v>
+      </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>210</v>
+      </c>
       <c r="F94" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2">
@@ -3967,7 +3979,9 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3982,11 +3982,15 @@
       <c r="B95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2">
+        <v>6</v>
+      </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>145</v>
+      </c>
       <c r="F95" s="2">
         <v>0</v>
       </c>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4009,12 +4009,18 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
       <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>115</v>
+      </c>
       <c r="F96" s="2">
         <v>0</v>
       </c>
@@ -4033,14 +4039,20 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>11</v>
+      </c>
       <c r="D97" s="2">
         <v>1</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>350</v>
+      </c>
       <c r="F97" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2">
@@ -4057,12 +4069,18 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6</v>
+      </c>
       <c r="D98" s="2">
         <v>1</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>140</v>
+      </c>
       <c r="F98" s="2">
         <v>0</v>
       </c>
@@ -4081,12 +4099,18 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2">
+        <v>6</v>
+      </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>125</v>
+      </c>
       <c r="F99" s="2">
         <v>0</v>
       </c>
@@ -4105,14 +4129,20 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10</v>
+      </c>
       <c r="D100" s="2">
         <v>1</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>280</v>
+      </c>
       <c r="F100" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2">
@@ -4129,7 +4159,9 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4155,18 +4155,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2">
+        <v>12</v>
+      </c>
       <c r="D101" s="2">
         <v>1</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>250</v>
+      </c>
       <c r="F101" s="2">
         <v>0</v>
       </c>
@@ -4178,19 +4182,26 @@
         <v>0</v>
       </c>
       <c r="J101" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2">
         <v>1</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
       <c r="F102" s="2">
         <v>0</v>
       </c>
@@ -4214,7 +4225,9 @@
       <c r="D103" s="2">
         <v>1</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
@@ -4230,190 +4243,400 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="3"/>
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
       <c r="B104" s="2"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="3"/>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="3"/>
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="3"/>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="3"/>
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="3"/>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="3"/>
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="3"/>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="3"/>
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="3"/>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="3"/>
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="3"/>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="3"/>
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="3"/>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="3"/>
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
       <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="3"/>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="3"/>
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="3"/>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="3"/>
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="3"/>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="3"/>
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="3"/>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="3"/>
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="3"/>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="3"/>
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="3"/>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="3"/>
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="3"/>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="3"/>
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="3"/>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="3"/>
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -6790,7 +7013,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A71" sqref="$A71:$XFD71"/>
+      <selection activeCell="F57" sqref="F57:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4188,19 +4188,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2">
+        <v>12</v>
+      </c>
       <c r="D102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -4214,26 +4216,33 @@
       </c>
       <c r="J102" s="2">
         <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="2">
+        <v>12</v>
+      </c>
       <c r="D103" s="2">
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -4246,7 +4255,9 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C104" s="4"/>
       <c r="D104" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4258,12 +4258,14 @@
       <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="4">
+        <v>3</v>
+      </c>
       <c r="D104" s="2">
         <v>1</v>
       </c>
       <c r="E104" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -4283,7 +4285,9 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C105" s="4"/>
       <c r="D105" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="52">
   <si>
     <t>轮次</t>
   </si>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4288,15 +4288,17 @@
       <c r="B105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4">
+        <v>7</v>
+      </c>
       <c r="D105" s="2">
         <v>1</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F105" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="2">
@@ -4313,13 +4315,17 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="4"/>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="4">
+        <v>6</v>
+      </c>
       <c r="D106" s="2">
         <v>1</v>
       </c>
       <c r="E106" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -4329,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -4339,13 +4345,17 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="4">
+        <v>12</v>
+      </c>
       <c r="D107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -4365,13 +4375,17 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="4"/>
+      <c r="B108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="4">
+        <v>6</v>
+      </c>
       <c r="D108" s="2">
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -4381,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -4391,13 +4405,17 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="4"/>
+      <c r="B109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="4">
+        <v>6</v>
+      </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -4407,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -4417,20 +4435,24 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="4"/>
+      <c r="B110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="4">
+        <v>8</v>
+      </c>
       <c r="D110" s="2">
         <v>1</v>
       </c>
       <c r="E110" s="2">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
@@ -4443,7 +4465,9 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C111" s="4"/>
       <c r="D111" s="2">
         <v>1</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
   <si>
     <t>轮次</t>
   </si>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,14 +1350,20 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>160</v>
+      </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>

--- a/竞技场统计.xlsx
+++ b/竞技场统计.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="53">
   <si>
     <t>轮次</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>猎人</t>
+  </si>
+  <si>
+    <t>术士</t>
   </si>
   <si>
     <t>均胜4.86</t>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>战士</t>
-  </si>
-  <si>
-    <t>术士</t>
   </si>
   <si>
     <t>死亡骑士</t>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1379,12 +1379,18 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1402,7 +1408,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>1</v>
@@ -2828,25 +2836,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:9">
@@ -2873,16 +2881,16 @@
     </row>
     <row r="77" customFormat="1" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2891,27 +2899,27 @@
     </row>
     <row r="80" customFormat="1" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:9">
@@ -2940,16 +2948,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2991,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3003,10 +3011,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3104,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -3134,7 +3142,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -3194,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -3554,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3584,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -3616,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
@@ -5184,7 +5192,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -6346,7 +6354,7 @@
         <v>44</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K113" t="s">
         <v>45</v>
@@ -6381,13 +6389,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>48</v>
@@ -6422,7 +6430,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>49</v>
@@ -6445,7 +6453,7 @@
         <v>44</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K119" t="s">
         <v>45</v>
@@ -6482,13 +6490,13 @@
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>51</v>
@@ -7177,7 +7185,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -7567,7 +7575,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -8375,25 +8383,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8418,39 +8426,39 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8473,16 +8481,16 @@
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10150,25 +10158,25 @@
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:9">
@@ -10195,16 +10203,16 @@
     </row>
     <row r="77" customFormat="1" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -10213,27 +10221,27 @@
     </row>
     <row r="80" customFormat="1" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:9">
@@ -10262,16 +10270,16 @@
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
